--- a/designdoc/receipts_analytics.xlsx
+++ b/designdoc/receipts_analytics.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\HKB_N_Healing\designdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA79E0D-BE69-4A04-8D1A-DE6017E7B76F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C80C41-2167-4E82-A08B-ACC5508F7D3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3876" yWindow="1176" windowWidth="17280" windowHeight="10980" activeTab="1" xr2:uid="{C2C2E687-A629-4480-ADEA-6F44B41C2F08}"/>
+    <workbookView xWindow="10836" yWindow="408" windowWidth="17280" windowHeight="10980" xr2:uid="{C2C2E687-A629-4480-ADEA-6F44B41C2F08}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="목차" sheetId="3" r:id="rId1"/>
+    <sheet name="라무" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>라무마트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,13 +116,90 @@
   <si>
     <t>단젠다이서</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로손</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세븐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페미마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타외식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://abc1211.tistory.com/115?category=926956</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이어그램 제일잘그린것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://abc1211.tistory.com/121</t>
+  </si>
+  <si>
+    <t>두번째로 잘그린것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.naver.com/PostView.nhn?blogId=june_621&amp;logNo=220992624723&amp;parentCategoryNo=&amp;categoryNo=&amp;viewDate=&amp;isShowPopularPosts=false&amp;from=postView</t>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.blog.naver.com/PostView.nhn?blogId=gona5&amp;logNo=220601272753&amp;proxyReferer=&amp;proxyReferer=https%3A%2F%2Fwww.google.com%2F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +210,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -155,18 +242,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -595,6 +689,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1156F98-4F7B-47E7-B6CD-29C000257844}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B9612152-50DD-4067-89D5-AB298BB0FA79}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{D47F476D-852D-4C48-B3B4-B395542A3D80}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{FE8B765E-D64F-477A-9D03-0B9089EEC4C5}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{435EDD93-AE0F-4FB3-99CD-DD07445D4F51}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEA4DBE-3567-49C8-8E3A-CA65015D7A01}">
   <dimension ref="F6:J20"/>
   <sheetViews>
@@ -696,11 +896,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C47B1F-3350-49E2-92DB-10B3E252DBA4}">
   <dimension ref="E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
